--- a/data/trans_camb/P1410-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1410-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.988055792430329</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.06752909571023577</v>
+        <v>-0.06752909571023438</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.712605752302736</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.262670463569865</v>
+        <v>-5.184173452629867</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.168956448459287</v>
+        <v>-5.061963491348282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.422288530003891</v>
+        <v>-3.001157095217886</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.07734551984785853</v>
+        <v>0.1261457588338923</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1566794945508018</v>
+        <v>-0.4440020472510101</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.9546789026919191</v>
+        <v>-1.114121031652245</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.83971230570337</v>
+        <v>-1.727696490740561</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.125562334504965</v>
+        <v>-1.936364307922547</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.235068392730182</v>
+        <v>-1.2839378116182</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.399168958150555</v>
+        <v>1.261608890769034</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.134071617365651</v>
+        <v>1.061292323791727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.925209211159227</v>
+        <v>3.220366023707162</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.955255547039344</v>
+        <v>5.930697495877507</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.749294240303557</v>
+        <v>5.428425512284607</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.332350273880707</v>
+        <v>3.386417631855853</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.467005712079147</v>
+        <v>2.542550604421344</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.262725232031248</v>
+        <v>2.160849705198153</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.385057560860851</v>
+        <v>2.595757035570579</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3983977370005447</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.01353253717279363</v>
+        <v>-0.01353253717279335</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.646484214403531</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7575765084065991</v>
+        <v>-0.7393948570525677</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7554187698883758</v>
+        <v>-0.7653061514964061</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5083790945407134</v>
+        <v>-0.4656529265440187</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3049276568618651</v>
+        <v>-0.2630855526931148</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2739929666754694</v>
+        <v>-0.314412226869725</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3889594577780655</v>
+        <v>-0.4867452315944606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4367356930322861</v>
+        <v>-0.4223092639838749</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4936171720407363</v>
+        <v>-0.453025121386158</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.275960746029727</v>
+        <v>-0.2890728237915201</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5659169925104036</v>
+        <v>0.4966961743701217</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.504888686922727</v>
+        <v>0.40335674731827</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8748183027920572</v>
+        <v>1.064399004974533</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>8.884063490825557</v>
+        <v>9.147113590121894</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>11.21795206967801</v>
+        <v>10.52438208224307</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.691059397720692</v>
+        <v>5.878281677267256</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.027701267173109</v>
+        <v>1.00228656105458</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8880723889474333</v>
+        <v>0.8714670750260967</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.086059864283841</v>
+        <v>1.085399174512645</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.495739697339586</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.112201027278149</v>
+        <v>-1.112201027278148</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.035270370396419</v>
+        <v>-5.939501599700535</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.916026324835026</v>
+        <v>-4.882326481560114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.660395363740443</v>
+        <v>-3.639628971765363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.200739066610101</v>
+        <v>-4.093685196042527</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.804127745157239</v>
+        <v>-3.601344366585105</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.998862904767465</v>
+        <v>-3.649978319629875</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.232876937439777</v>
+        <v>-4.171430278712433</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.674449856343362</v>
+        <v>-3.521077234248477</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.055203645166679</v>
+        <v>-3.226844553048242</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.497574992963641</v>
+        <v>-0.3310454970757171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8774468215432926</v>
+        <v>0.760700441853982</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.347289484896219</v>
+        <v>2.074236267420608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.068459779583062</v>
+        <v>1.280413708040721</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.843584209441513</v>
+        <v>1.849535568185706</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9429105577836916</v>
+        <v>1.055900009559239</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.3218917367706861</v>
+        <v>-0.4065026840780367</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4341389282860296</v>
+        <v>0.3407774926078803</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8435297583645082</v>
+        <v>0.7569932454912371</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1515582506531144</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2451318440383362</v>
+        <v>-0.2451318440383361</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3784922196720824</v>
@@ -983,7 +983,7 @@
         <v>-0.2507132608483632</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1864251826462668</v>
+        <v>-0.1864251826462667</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7430613922691005</v>
+        <v>-0.7430491104513877</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6324124953434046</v>
+        <v>-0.6104173239316304</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4900488791545686</v>
+        <v>-0.4788347294815787</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6036135474813096</v>
+        <v>-0.5586858563671854</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5312328035559977</v>
+        <v>-0.5006302230718543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5381703291966662</v>
+        <v>-0.503285085527303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5926413909740174</v>
+        <v>-0.5886626482878445</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4999841263401377</v>
+        <v>-0.4978217282043447</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4195366093275458</v>
+        <v>-0.4538296638331486</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.04955331849495349</v>
+        <v>-0.01354738829529393</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2211884362807121</v>
+        <v>0.2438617758298198</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5110105945217831</v>
+        <v>0.4803836275623365</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2545790359251201</v>
+        <v>0.3920252316754652</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4143558246942021</v>
+        <v>0.4628467689160222</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2082182188978909</v>
+        <v>0.2582646029627664</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.05982415877600854</v>
+        <v>-0.06964954718460205</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08960430395982184</v>
+        <v>0.07359887368708597</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2083272407180597</v>
+        <v>0.1423311845594841</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.151198416280032</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.833770958135785</v>
+        <v>2.833770958135786</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.664906063543886</v>
@@ -1092,7 +1092,7 @@
         <v>-0.01795930189457812</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.452411246280112</v>
+        <v>2.45241124628011</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.199294508398324</v>
+        <v>-2.257167634219743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.828175313947755</v>
+        <v>-2.175047979349189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.46074540305997</v>
+        <v>-1.298115859818719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6255333058086522</v>
+        <v>-0.7912442302524124</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.925798393585661</v>
+        <v>-3.958690035638059</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.2413521564957971</v>
+        <v>-0.09102743693596227</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5913579111117484</v>
+        <v>-0.5472664687809462</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.320845994965306</v>
+        <v>-2.238320272563772</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3192403679520677</v>
+        <v>0.3127681664601089</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.621880401624253</v>
+        <v>4.600986774946844</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.523530881322982</v>
+        <v>4.262776968445045</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.134674793504614</v>
+        <v>5.216518071233165</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.862490075923987</v>
+        <v>5.442325555263907</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.782164939606181</v>
+        <v>1.755853752946639</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.439147399805125</v>
+        <v>5.515009342715517</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.15963887765685</v>
+        <v>4.048416299328294</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.092427173993792</v>
+        <v>2.148752816843084</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.576864750906569</v>
+        <v>4.417737369773031</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3184317339361561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7838462831568026</v>
+        <v>0.7838462831568029</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4355914288018908</v>
@@ -1197,7 +1197,7 @@
         <v>-0.004698714326195724</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.641627381969602</v>
+        <v>0.6416273819696017</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4175459367035668</v>
+        <v>-0.4291856178182598</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3446253800080191</v>
+        <v>-0.4460474949363494</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2785025954020393</v>
+        <v>-0.2460158576125317</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1981824326896238</v>
+        <v>-0.2237641231259251</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7901562489135397</v>
+        <v>-0.7715637849096334</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.09903889966141573</v>
+        <v>-0.04211469277662579</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1315200723579565</v>
+        <v>-0.1561336623512571</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4902959983343781</v>
+        <v>-0.4575665262098828</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.06417793428513549</v>
+        <v>0.04393136465644489</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.673209739647375</v>
+        <v>1.87977021292179</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.817917545216077</v>
+        <v>1.695433876361931</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.078575201658543</v>
+        <v>2.215877408320136</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.312112340527387</v>
+        <v>2.33861536636361</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8849544056711021</v>
+        <v>0.9545701764291886</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.31433550508238</v>
+        <v>2.729556085511719</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.554783625402356</v>
+        <v>1.392215533257554</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7366487226875179</v>
+        <v>0.813185719128985</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.774493038649862</v>
+        <v>1.623731079731554</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>6.919560368370981</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.94851752823283</v>
+        <v>1.948517528232831</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.621008814178913</v>
@@ -1306,7 +1306,7 @@
         <v>3.867545115953139</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.171428065964165</v>
+        <v>2.171428065964164</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3669702662391423</v>
+        <v>0.1211257562111668</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.009650257605981</v>
+        <v>-1.912530287525664</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.327929436498179</v>
+        <v>-0.1212692742390669</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04833850128180762</v>
+        <v>0.2141407926092673</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.507891227952773</v>
+        <v>3.716069644235807</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2285195058400367</v>
+        <v>-0.03707549283209711</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.753171754606595</v>
+        <v>0.481212761498318</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.883045625638268</v>
+        <v>1.741111528350498</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2773244182427314</v>
+        <v>0.3860339742171492</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.609208787534336</v>
+        <v>6.013567467668326</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.331322762837215</v>
+        <v>3.461622497490536</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.197143969882908</v>
+        <v>5.248968639839381</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.444432057516322</v>
+        <v>5.098797914889149</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.64901284233211</v>
+        <v>10.64548645424721</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.648860540007905</v>
+        <v>4.509214592501192</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.694203925326626</v>
+        <v>4.513980815728687</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.32559541817587</v>
+        <v>6.297655334737066</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.9011891974699</v>
+        <v>4.102480145691891</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>3.154916677825607</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8884105520571565</v>
+        <v>0.8884105520571567</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.9781167430400761</v>
@@ -1411,7 +1411,7 @@
         <v>1.443303285327453</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8103407116133797</v>
+        <v>0.8103407116133794</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1227832510890118</v>
+        <v>-0.03393254431456098</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.461058723910162</v>
+        <v>-0.4456458626526972</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.09820934145615527</v>
+        <v>-0.06520732238941257</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05987365881244955</v>
+        <v>0.00133208962729685</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9340260551913725</v>
+        <v>0.9471728373595351</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1391599450737391</v>
+        <v>-0.1169696101435041</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2004137630414032</v>
+        <v>0.0974780309048605</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5164800329263088</v>
+        <v>0.4339861880157301</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05029578854131097</v>
+        <v>0.08970123948702718</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.848662754967831</v>
+        <v>2.87048697889649</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.663778003495978</v>
+        <v>1.851269578052088</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.682586530877501</v>
+        <v>2.743672350120721</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.057670748586482</v>
+        <v>4.19715595545294</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9.56436415717182</v>
+        <v>8.643068034273721</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.961929531300549</v>
+        <v>3.720201395092753</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.450261656638962</v>
+        <v>2.292624181493187</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.241564524778492</v>
+        <v>3.135780233474953</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.060368617370919</v>
+        <v>2.122703231799009</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.953649572391631</v>
+        <v>-6.091363829881273</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.133401541547012</v>
+        <v>-6.504521963684853</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.699874662025099</v>
+        <v>-5.614674819764661</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.309708597216514</v>
+        <v>-2.705450525225542</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.621350463799692</v>
+        <v>-5.589290038421029</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.316094740655339</v>
+        <v>-4.027979426899267</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.991252246291543</v>
+        <v>-3.092906898855807</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.848775217399647</v>
+        <v>-4.918206651629317</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.714235835094618</v>
+        <v>-3.607445126888199</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.652890133294599</v>
+        <v>1.764520228802943</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1458148795773077</v>
+        <v>0.4410455907200055</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.119145578912578</v>
+        <v>1.581418348801128</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.054188798766995</v>
+        <v>5.418477461490476</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.101362382318566</v>
+        <v>0.927134069918803</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.118232441416286</v>
+        <v>1.979380727184922</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.369934637827821</v>
+        <v>2.545211414623044</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2007706932750808</v>
+        <v>-0.1255876909929207</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9611897001048398</v>
+        <v>1.235115051201215</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8212970718981325</v>
+        <v>-0.7981219161145475</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.9071260039898723</v>
+        <v>-0.8607891347100123</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7296509254013781</v>
+        <v>-0.7280142649627748</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5011918075255228</v>
+        <v>-0.5365894735081987</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.897714203172343</v>
+        <v>-0.9110556133401331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6569651168035877</v>
+        <v>-0.621081607002718</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5083435988680397</v>
+        <v>-0.5160055465299012</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7998906389082276</v>
+        <v>-0.8139347349268409</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5909552967627192</v>
+        <v>-0.575023926149246</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7218186391880288</v>
+        <v>0.696691780444589</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1618787536520864</v>
+        <v>0.3268156979752687</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4441611181838764</v>
+        <v>0.6199046855177013</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.030717775583541</v>
+        <v>3.190977521314907</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9853679395271513</v>
+        <v>0.9803285018076431</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.384403135461937</v>
+        <v>1.115712204686379</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8560046301220243</v>
+        <v>0.8525563268880778</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.01006977937993564</v>
+        <v>0.07167501861904986</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3431519541883639</v>
+        <v>0.4634580580280492</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-2.485334297759222</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.636771707225605</v>
+        <v>2.636771707225603</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>4.740157252123966</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.248695574029727</v>
+        <v>-3.597401987202211</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.456930508043232</v>
+        <v>-5.645485050083635</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.148199483366668</v>
+        <v>-0.9243113959408386</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.537825523060604</v>
+        <v>1.574711508729501</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.2561039081722633</v>
+        <v>0.5540565349676785</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.510481109681062</v>
+        <v>1.564471702419117</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.1041253292130386</v>
+        <v>-0.176525575274252</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.891455231063262</v>
+        <v>-1.83083489673813</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.236935605669418</v>
+        <v>1.384842921681892</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.801578446774749</v>
+        <v>3.865227321835132</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.7446998569512656</v>
+        <v>0.8131124851194546</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.778746375096879</v>
+        <v>6.405160652217365</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.248565692616905</v>
+        <v>8.46534638215722</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.923720425395928</v>
+        <v>7.406031244498042</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.035429476226479</v>
+        <v>6.914872115656008</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.179276741257282</v>
+        <v>4.641146629448125</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.963434360807709</v>
+        <v>3.124194000408457</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.806618989781511</v>
+        <v>5.618639249506817</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.5018389654888225</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.532417223299627</v>
+        <v>0.5324172232996268</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>2.371663027445657</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5429255817639771</v>
+        <v>-0.5421485638539429</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8412438033158077</v>
+        <v>-0.8613961760112021</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1645192818956563</v>
+        <v>-0.1450629320718724</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2761617702358094</v>
+        <v>0.2195175723621768</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03523701432082238</v>
+        <v>-0.1013091741217333</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2790807064682874</v>
+        <v>0.25022073408256</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.003824894897642574</v>
+        <v>-0.05360584192438902</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4095020894343159</v>
+        <v>-0.4173928158704156</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.207776665275112</v>
+        <v>0.2708434781842873</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.227602120851214</v>
+        <v>1.296625931318091</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3628359821721936</v>
+        <v>0.3481912005138383</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.733778627051383</v>
+        <v>2.144410056118893</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>9.208174073320158</v>
+        <v>9.131822015870245</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>8.204796506527186</v>
+        <v>8.959141969599084</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>9.175122753117824</v>
+        <v>7.831560998441633</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.993260843861559</v>
+        <v>1.930411063211549</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.174460394687773</v>
+        <v>1.285365524927738</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.328252652354849</v>
+        <v>2.467459137333698</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.860549727740717</v>
+        <v>-0.690711608762831</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.949680807993972</v>
+        <v>-1.829129041128851</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.906023734876987</v>
+        <v>0.9441628493555546</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.247905104365683</v>
+        <v>-3.310475157200882</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.477490788941248</v>
+        <v>-2.405844536460319</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.7061951435414213</v>
+        <v>-1.036398287893259</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.46881744678092</v>
+        <v>-1.488533781726562</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.515503654158332</v>
+        <v>-1.395480017061871</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.5621546870249474</v>
+        <v>0.5511600807861573</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.34145293246523</v>
+        <v>3.398646759417665</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.046574773393145</v>
+        <v>2.100227385415251</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.755530917571047</v>
+        <v>5.680118448221519</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.5777501785610641</v>
+        <v>0.6409130421598269</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.113085608562442</v>
+        <v>2.113446206376835</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.187683304948038</v>
+        <v>3.221513558430708</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.514714952918632</v>
+        <v>1.284072630615815</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.533198298777179</v>
+        <v>1.391165310382039</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.868031853706758</v>
+        <v>3.725967404458896</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2072172807893126</v>
+        <v>-0.1792636393361629</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4569720942088699</v>
+        <v>-0.424802991898601</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1956403762845193</v>
+        <v>0.2006432969794747</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6305889144331214</v>
+        <v>-0.6215131332310544</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.4882121744478102</v>
+        <v>-0.4448920735146429</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1389968017341854</v>
+        <v>-0.1970499066859371</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3457867577389256</v>
+        <v>-0.3516003368507735</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3378984847199477</v>
+        <v>-0.3371162521486636</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1248220951004655</v>
+        <v>0.1243635369837779</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.366554681429908</v>
+        <v>1.458031594103623</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8738720425485523</v>
+        <v>0.8282124251037987</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.442108393018564</v>
+        <v>2.320790312700687</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2321268171353701</v>
+        <v>0.2499570442964476</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6832784501654455</v>
+        <v>0.6821833721924975</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.068981071270544</v>
+        <v>1.047560679092326</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5163726261009222</v>
+        <v>0.4002989915907779</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5296584393732459</v>
+        <v>0.4501339636611261</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.382575327473332</v>
+        <v>1.209245753268576</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-0.4019380622466394</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-1.467100271771888</v>
+        <v>-1.467100271771887</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.896331733947676</v>
@@ -2162,7 +2162,7 @@
         <v>-0.5126437653078929</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-1.237932509787773</v>
+        <v>-1.237932509787772</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.715957781773238</v>
+        <v>-4.580945483306736</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.053302856150636</v>
+        <v>-2.59105821624724</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.102949346027686</v>
+        <v>-3.108835271562281</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.071435112037206</v>
+        <v>-2.978134514363258</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.42811395363936</v>
+        <v>-2.459529482406855</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.412007518074574</v>
+        <v>-3.271853049170232</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.325791485735089</v>
+        <v>-3.326180275700978</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.063197823591772</v>
+        <v>-2.126128782992649</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.532635687252147</v>
+        <v>-2.69015742061499</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.9241286828265965</v>
+        <v>-0.8376751109823884</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.614992084693348</v>
+        <v>1.624094355282274</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.8750187085833614</v>
+        <v>0.8817719606014044</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.8050506425278458</v>
+        <v>0.8923158927599715</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.482531951913291</v>
+        <v>1.571007143729007</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.1901008974033176</v>
+        <v>0.1798000914405349</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.6030506892611711</v>
+        <v>-0.336359854125012</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.8946001969242523</v>
+        <v>0.9153634000625901</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.07881294237099191</v>
+        <v>-0.001430174301969113</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.09319275760360826</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.3401596734661286</v>
+        <v>-0.3401596734661285</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.4062229919360259</v>
@@ -2267,7 +2267,7 @@
         <v>-0.1098160624603396</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.2651839016024917</v>
+        <v>-0.2651839016024915</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7445440749972133</v>
+        <v>-0.7369677604913972</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4846609918082065</v>
+        <v>-0.4209775132090239</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.4892547277752514</v>
+        <v>-0.4919108307203743</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.5762270034614456</v>
+        <v>-0.5696139258057665</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.4616050739690573</v>
+        <v>-0.4616731350680855</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6104589411935736</v>
+        <v>-0.5877590828081818</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6084182732114903</v>
+        <v>-0.6116528702448457</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3799667995441004</v>
+        <v>-0.387208577926727</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.4671999088242434</v>
+        <v>-0.4792181859492715</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.2091480043271177</v>
+        <v>-0.1982939063294179</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4010403312197755</v>
+        <v>0.4305883746613414</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2480456480035221</v>
+        <v>0.2263486395051458</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2552419032288556</v>
+        <v>0.2911180831043689</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4355659949540339</v>
+        <v>0.4725810460523212</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.05674254968596851</v>
+        <v>0.07784832380072983</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1317387696806574</v>
+        <v>-0.1042027484223744</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2206703230158673</v>
+        <v>0.2506361690835253</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.02573172286459414</v>
+        <v>0.02001800763507046</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-0.8249823431779296</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.8275908077304988</v>
+        <v>0.8275908077304973</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>0.4369038254308122</v>
@@ -2367,7 +2367,7 @@
         <v>0.7512283139158992</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.6215837438880261</v>
+        <v>0.6215837438880254</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-0.133402354874914</v>
@@ -2376,7 +2376,7 @@
         <v>-0.02241132809695928</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.7166790029804894</v>
+        <v>0.7166790029804901</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.720000492887181</v>
+        <v>-1.569975449967316</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.784560780969936</v>
+        <v>-1.771182696620294</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.1860562073155917</v>
+        <v>-0.133088211756443</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.5123388390563407</v>
+        <v>-0.4596240638738037</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.2459980056903105</v>
+        <v>-0.2079614422764181</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.265486090686179</v>
+        <v>-0.2220768019444338</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.7956589631636901</v>
+        <v>-0.7918700787344057</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.6755630185499603</v>
+        <v>-0.7273282762795342</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.09003321795107759</v>
+        <v>0.0824807622156085</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.2046120023839479</v>
+        <v>0.3605992977894218</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.1685699865389141</v>
+        <v>0.1476568836851292</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.860351454500805</v>
+        <v>1.820738405447056</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.417741654908044</v>
+        <v>1.353939361044104</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.706078077938144</v>
+        <v>1.70038667377102</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.502695872758375</v>
+        <v>1.37955955151391</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.5947328163436981</v>
+        <v>0.59593379737387</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.6921282109869219</v>
+        <v>0.6857938029875159</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.402690491079747</v>
+        <v>1.36451110173747</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.1800126667960001</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.180581838565837</v>
+        <v>0.1805818385658367</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.116525490711849</v>
@@ -2472,7 +2472,7 @@
         <v>0.2003581631022991</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1657809947158051</v>
+        <v>0.1657809947158049</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.03206986036527403</v>
@@ -2481,7 +2481,7 @@
         <v>-0.005387672229202768</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.1722892791049984</v>
+        <v>0.1722892791049986</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.336734071663494</v>
+        <v>-0.3129203091325316</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.3557175148745395</v>
+        <v>-0.3475472475430363</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.04167561344375342</v>
+        <v>-0.02544720694444474</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1209070244414446</v>
+        <v>-0.1127403052502421</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.05621460280772723</v>
+        <v>-0.05066347813877754</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.07040450611974122</v>
+        <v>-0.05149068814732508</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1792392189285115</v>
+        <v>-0.1734876035601208</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1531931531192734</v>
+        <v>-0.1556183825312712</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.01948136965177125</v>
+        <v>0.02043402635699813</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.05245337555995565</v>
+        <v>0.09600033108870654</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.04350192379352382</v>
+        <v>0.03634960940387587</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.4618257580794732</v>
+        <v>0.4548489574075457</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.4338926445550366</v>
+        <v>0.4172346971740183</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.5143512787693323</v>
+        <v>0.5116118750249604</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.4568973606987478</v>
+        <v>0.4277744095219674</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1583913757663026</v>
+        <v>0.1552187367729201</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.183277682631705</v>
+        <v>0.1757425316259294</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.3661839865926228</v>
+        <v>0.3637524712862759</v>
       </c>
     </row>
     <row r="58">
